--- a/relational-data.xlsx
+++ b/relational-data.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Bankaskipan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B113CC16-81F1-4945-94B5-66124F3CF085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4360" yWindow="2420" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Personal number ID</t>
   </si>
@@ -146,24 +166,38 @@
   </si>
   <si>
     <t>Skrædla</t>
+  </si>
+  <si>
+    <t>Gírikur</t>
+  </si>
+  <si>
+    <t>McGvakk</t>
+  </si>
+  <si>
+    <t>Pengagøta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -173,42 +207,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -398,26 +435,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="16.86"/>
-    <col customWidth="1" min="7" max="7" width="19.71"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,9 +506,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2.61290053E8</v>
+        <v>261290057</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -481,33 +523,33 @@
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="I2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.50995144E8</v>
+        <v>150995140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
@@ -522,33 +564,33 @@
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="2">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1.60101233E8</v>
+        <v>160101233</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -563,35 +605,35 @@
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="2">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="I4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.224569E8</v>
+        <v>122456900</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -606,27 +648,27 @@
         <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="2">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="I6" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>4.56789455E8</v>
+        <v>456789455</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -641,25 +683,28 @@
         <v>28</v>
       </c>
       <c r="F7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="2">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>444333332</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -673,35 +718,35 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M8" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L9" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M9" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>5.35724105E8</v>
+        <v>535724105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
@@ -716,35 +761,35 @@
         <v>34</v>
       </c>
       <c r="F10" s="2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="2">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="I10" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M10" s="2">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>1.17420043E8</v>
+        <v>117420043</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -759,21 +804,21 @@
         <v>37</v>
       </c>
       <c r="F12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="2">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="I12" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>9.91112006E8</v>
+        <v>991112006</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
@@ -788,21 +833,21 @@
         <v>37</v>
       </c>
       <c r="F13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="2">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="I13" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2.41204678E8</v>
+        <v>241204006</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
@@ -817,21 +862,21 @@
         <v>37</v>
       </c>
       <c r="F14" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="2">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="I14" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2.41204679E8</v>
+        <v>241204103</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
@@ -846,21 +891,21 @@
         <v>37</v>
       </c>
       <c r="F15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="2">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="I15" s="2">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1.60589244E8</v>
+        <v>160589248</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -875,19 +920,45 @@
         <v>37</v>
       </c>
       <c r="F16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="2">
-        <v>666.0</v>
+        <v>666</v>
       </c>
       <c r="I16" s="2">
-        <v>12.0</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>696969698</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>